--- a/program_directory/interpreterAccounting/万科A：2016年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/万科A：2016年年度报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600"/>
+    <workbookView windowWidth="27720" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="无形资产情况" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="246">
   <si>
     <t>土地使用权</t>
   </si>
@@ -296,6 +296,30 @@
   </si>
   <si>
     <t>16,046,020,691.50</t>
+  </si>
+  <si>
+    <t>现金及现金等价物年末余额</t>
+  </si>
+  <si>
+    <t>79,490,014,945.69</t>
+  </si>
+  <si>
+    <t>51,747,621,165.94</t>
+  </si>
+  <si>
+    <t>减：现金及现金等价物年初余额</t>
+  </si>
+  <si>
+    <t>61,653,319,666.30</t>
+  </si>
+  <si>
+    <t>现金及现金等价物净增加/(减少)额</t>
+  </si>
+  <si>
+    <t>27,742,393,779.75</t>
+  </si>
+  <si>
+    <t>(9,905,698,500.36)</t>
   </si>
   <si>
     <t>资产</t>
@@ -738,10 +762,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -749,120 +773,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -881,9 +791,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,6 +872,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -905,31 +929,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,151 +1097,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,8 +1126,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,41 +1149,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,7 +1160,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,157 +1182,189 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1695,7 +1719,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1916,10 +1940,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -2090,6 +2114,39 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2116,210 +2173,210 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B17" s="1">
         <v>13</v>
@@ -2328,457 +2385,457 @@
         <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1">
         <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B21" s="1">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B25" s="1">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B26" s="1">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B27" s="1">
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B28" s="1">
         <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B29" s="1">
         <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B30" s="1">
         <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B31" s="1">
         <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B32" s="1">
         <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B33" s="1">
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B36" s="1">
         <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B37" s="1">
         <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B38" s="1">
         <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B39" s="1">
         <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B40" s="1">
         <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B44" s="1">
         <v>31</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B45" s="1">
         <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B47" s="1">
         <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B48" s="1">
         <v>34</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B49" s="1">
         <v>35</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
